--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E15CCB-A572-4B01-8769-5901774075BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6AA38-C00B-4EA5-89E2-E314C8782093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>html파일들은 보통 src/main/resources.static에 넣어둔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.InteliJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -602,6 +606,11 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6AA38-C00B-4EA5-89E2-E314C8782093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA7AD3-ECF8-4393-8EBD-5AE2AEE605BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,13 @@
   <si>
     <t>3.InteliJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mongodev.tistory.com/28</t>
   </si>
 </sst>
 </file>
@@ -531,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -625,10 +632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C221B-4C07-4A37-A927-1FAA68557331}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,11 +658,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{57950C1D-8AB6-48A3-B052-2AB1A6244AE7}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{BF42E10E-1FB6-4B03-97EA-DA51048A9830}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA7AD3-ECF8-4393-8EBD-5AE2AEE605BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387FAD0-EA6A-4F17-BCE3-F312BF8D2E43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>https://mongodev.tistory.com/28</t>
+  </si>
+  <si>
+    <t>4.Ajax통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,6 +622,11 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -634,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C221B-4C07-4A37-A927-1FAA68557331}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387FAD0-EA6A-4F17-BCE3-F312BF8D2E43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1379850-8C44-4622-BB0E-B847B09879B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>4.Ajax통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말은 쉼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
@@ -627,6 +631,11 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1379850-8C44-4622-BB0E-B847B09879B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E95A0C-8E0F-4FC9-972B-4ED926F0A5B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="설치" sheetId="2" r:id="rId2"/>
+    <sheet name="문제해결" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +201,14 @@
   </si>
   <si>
     <t>주말은 쉼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongodb에러가 뜰때는 접속이 되어있지않은 상황.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongod를 실행시켜 접속시킬것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -653,7 +662,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -695,4 +704,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01D0E0-2074-4FCA-A322-15110D1C9A2B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E95A0C-8E0F-4FC9-972B-4ED926F0A5B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53048FC-DA8C-4C37-80DE-875B5B87EEF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2280" windowWidth="23265" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="2280" windowWidth="23250" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>mongod를 실행시켜 접속시킬것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL공부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,6 +649,11 @@
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01D0E0-2074-4FCA-A322-15110D1C9A2B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53048FC-DA8C-4C37-80DE-875B5B87EEF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E566004-613D-4FA2-A3A9-32E2A281944B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="2280" windowWidth="23250" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15465" yWindow="2010" windowWidth="23250" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,20 @@
   </si>
   <si>
     <t>SQL공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uncaught TypeError: Illegal invocation</t>
+  </si>
+  <si>
+    <t>ajax를 이용하여 data를 넘길떄, 제대로된 값이 아니거나 유형이 다를경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissingServletRequestParameterException</t>
+  </si>
+  <si>
+    <t>required와 관련이 있다. 필수항목이 null일 경우 발생.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -717,22 +731,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01D0E0-2074-4FCA-A322-15110D1C9A2B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E566004-613D-4FA2-A3A9-32E2A281944B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510718B1-C1A8-43C3-B2CA-6F0BE6EBDC84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15465" yWindow="2010" windowWidth="23250" windowHeight="9300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="300" windowWidth="23250" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>required와 관련이 있다. 필수항목이 null일 경우 발생.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>531맥환경 구축</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,9 +686,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C221B-4C07-4A37-A927-1FAA68557331}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -716,6 +720,11 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01D0E0-2074-4FCA-A322-15110D1C9A2B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510718B1-C1A8-43C3-B2CA-6F0BE6EBDC84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D36FE6-1CE0-4F24-B96C-D5B2264F4A21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="300" windowWidth="23250" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="300" windowWidth="23250" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,10 @@
   </si>
   <si>
     <t>531맥환경 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링어노테이션 숙지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,6 +676,11 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638C221B-4C07-4A37-A927-1FAA68557331}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -743,7 +752,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D36FE6-1CE0-4F24-B96C-D5B2264F4A21}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C4867-545C-40DC-AC68-5D0F7603B4F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4650" yWindow="300" windowWidth="23250" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1.JDK란?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,10 @@
   </si>
   <si>
     <t>스프링어노테이션 숙지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,6 +685,11 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/스프링자습서.xlsx
+++ b/스프링자습서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\spring\workspace\springboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0C4867-545C-40DC-AC68-5D0F7603B4F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B114426-40A6-4FC2-90AC-B95C978BDBE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4650" yWindow="300" windowWidth="23250" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레식</t>
+    <t>0615 종료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,8 +687,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
     </row>
